--- a/frontend/web/file/import/employee/employee.xlsx
+++ b/frontend/web/file/import/employee/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakna\Desktop\HRVC\file import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9F2E8-8306-4D86-A840-8B24E444317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E02912-36BC-432C-A502-A73E7F4C7987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="324">
   <si>
     <t>Company</t>
   </si>
@@ -998,12 +998,6 @@
   </si>
   <si>
     <t>Enlgish</t>
-  </si>
-  <si>
-    <t>1988-10-10</t>
-  </si>
-  <si>
-    <t>2021-11-8</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,6 +1112,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1401,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1411,7 +1406,7 @@
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="6" width="22.08203125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="22.08203125" style="13" customWidth="1"/>
     <col min="7" max="7" width="13.9140625" customWidth="1"/>
     <col min="8" max="8" width="13.58203125" style="10" customWidth="1"/>
     <col min="9" max="9" width="23" style="10" customWidth="1"/>
@@ -1496,11 +1491,11 @@
       <c r="D2" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>324</v>
+      <c r="E2" s="13">
+        <v>44508</v>
+      </c>
+      <c r="F2" s="13">
+        <v>32426</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -1552,11 +1547,11 @@
       <c r="D3" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>324</v>
+      <c r="E3" s="13">
+        <v>44508</v>
+      </c>
+      <c r="F3" s="13">
+        <v>32426</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -1605,11 +1600,11 @@
       <c r="D4" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>324</v>
+      <c r="E4" s="13">
+        <v>44508</v>
+      </c>
+      <c r="F4" s="13">
+        <v>32426</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -1658,11 +1653,11 @@
       <c r="D5" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>324</v>
+      <c r="E5" s="13">
+        <v>44508</v>
+      </c>
+      <c r="F5" s="13">
+        <v>32426</v>
       </c>
       <c r="G5" t="s">
         <v>68</v>
@@ -2079,7 +2074,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="20" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="F17" s="5" t="s">
         <v>67</v>
@@ -2242,7 +2237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="10:10" ht="40" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:10" ht="20" x14ac:dyDescent="0.3">
       <c r="J45" s="8" t="s">
         <v>116</v>
       </c>
@@ -2477,7 +2472,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="10:10" ht="40" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:10" ht="20" x14ac:dyDescent="0.3">
       <c r="J92" s="8" t="s">
         <v>163</v>
       </c>
@@ -2917,7 +2912,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="10:10" ht="40" x14ac:dyDescent="0.3">
+    <row r="180" spans="10:10" ht="20" x14ac:dyDescent="0.3">
       <c r="J180" s="8" t="s">
         <v>250</v>
       </c>
@@ -2967,7 +2962,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="190" spans="10:10" ht="40" x14ac:dyDescent="0.3">
+    <row r="190" spans="10:10" ht="20" x14ac:dyDescent="0.3">
       <c r="J190" s="8" t="s">
         <v>260</v>
       </c>
